--- a/biology/Botanique/Bilimbi/Bilimbi.xlsx
+++ b/biology/Botanique/Bilimbi/Bilimbi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bilimbi (Averrhoa bilimbi) est un arbre fruitier de la famille des Oxalidacées, aussi appelé arbre à cornichons pour ses fruits comestibles, semblables à des cornichons translucides.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre peut atteindre entre 6 et 10 mètres de hauteur.
 Les feuilles : alternes, entières, lisses, courtement pétiolées, sont d'un vert foncé ou clair suivant les saisons et leur situation géographique, à la Réunion. 
@@ -551,9 +565,11 @@
           <t>À la Réunion</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'arbre a été introduit sur l'île en 1764 par l'ingénieur Joseph-François Charpentier de Cossigny de Palma[2] ou par M. Brenier[3], selon les sources.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre a été introduit sur l'île en 1764 par l'ingénieur Joseph-François Charpentier de Cossigny de Palma ou par M. Brenier, selon les sources.
 Ce fruit fait partie des fruits les plus appréciés de l'île, il est plus charnue que ceux de Madagascar. Il est souvent associé aux fêtes de fin d'année...car c'est un peu l'arbre de Noël et ses boules rouges...en saison chaude periode de Noël on le trouve dans les jardins des habitants ou dans des parcs (vers Saint Benoit) où ils sont cultivés exclusivement pour les fêtes de fin d'année.[réf. souhaitée]
 Sa période de production est quasi permanente sur toute l'année avec une prédominance de janvier à avril.
 </t>
@@ -584,12 +600,14 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son utilisation est très variée. Le plus souvent utilisé dans la cuisine, on peut trouver le bilimbi dans plusieurs plats tels que les achards, les chutneys, les pickles, le rougail aux Comores et dans certains currys. De saveur acide, ce fruit est utilisé en pâtisserie  comme boissons ou comme condiment, selon sa maturité[4]. 
-Dans l'usage médicinal traditionnel, les feuilles sont utilisées en infusion contre les infections intestinales ou en cataplasme contre certaines maladies de la peau. Contenant de l'acide citrique, il a des propriétés antiscorbutiques[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son utilisation est très variée. Le plus souvent utilisé dans la cuisine, on peut trouver le bilimbi dans plusieurs plats tels que les achards, les chutneys, les pickles, le rougail aux Comores et dans certains currys. De saveur acide, ce fruit est utilisé en pâtisserie  comme boissons ou comme condiment, selon sa maturité. 
+Dans l'usage médicinal traditionnel, les feuilles sont utilisées en infusion contre les infections intestinales ou en cataplasme contre certaines maladies de la peau. Contenant de l'acide citrique, il a des propriétés antiscorbutiques.
 On peut aussi l'utiliser comme détachant pour le linge et décapant pour les métaux grâce à l'oxalate de potassium qu'il contient.
-Il est aussi connu pour être un excellent bois de charpente[5].
+Il est aussi connu pour être un excellent bois de charpente.
 </t>
         </is>
       </c>
